--- a/data/processed/lattest_update.xlsx
+++ b/data/processed/lattest_update.xlsx
@@ -391,7 +391,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2">
-        <v>44642.98198730837</v>
+        <v>44802.7586005442</v>
       </c>
     </row>
   </sheetData>
@@ -645,25 +645,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ffb314bc-7b2d-45ce-a517-7d370eafd82d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163EF255-9FB2-48A4-8B85-71B646BCDE89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A5110C3-C9D2-4FA7-A38F-FB66C2DCB2B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74FD6FBD-1D1E-4A3B-82BF-385103F84C48}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2A18D8-4B27-4579-B492-FC87B6377701}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3494BD8A-1FE9-498A-9CAF-6442C9BB72ED}"/>
 </file>
--- a/data/processed/lattest_update.xlsx
+++ b/data/processed/lattest_update.xlsx
@@ -391,7 +391,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2">
-        <v>44802.7586005442</v>
+        <v>44837.69805665458</v>
       </c>
     </row>
   </sheetData>
@@ -400,8 +400,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100690A46C601EF784FB4DBF90453A8B30A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30e798558c24d933b83cabca3a8549cd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" xmlns:ns3="ffb314bc-7b2d-45ce-a517-7d370eafd82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfbdb12039145b339eccd1e6b363e79e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100690A46C601EF784FB4DBF90453A8B30A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c2a6d426412259875eae8505f32291d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" xmlns:ns3="ffb314bc-7b2d-45ce-a517-7d370eafd82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ede3b69aa4e47f5cdfdf7e34ba2e0ff" ns2:_="" ns3:_="">
     <xsd:import namespace="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad"/>
     <xsd:import namespace="ffb314bc-7b2d-45ce-a517-7d370eafd82d"/>
     <xsd:element name="properties">
@@ -424,6 +424,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -494,6 +495,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ffb314bc-7b2d-45ce-a517-7d370eafd82d" elementFormDefault="qualified">
@@ -646,9 +652,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A5110C3-C9D2-4FA7-A38F-FB66C2DCB2B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9DB5A3-9CC9-4565-8346-2575E5D7966B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3494BD8A-1FE9-498A-9CAF-6442C9BB72ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876DB299-FB57-4AD2-93EC-21742BD6F0BE}"/>
 </file>
--- a/data/processed/lattest_update.xlsx
+++ b/data/processed/lattest_update.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ifrcorg.sharepoint.com/sites/THEFDRSTEAM/Shared Documents/Tech talk and files/3_Python/FDRS/fdrs_imputing_missing_values/data/processed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_E15D7ED4DFEA7A3383897D8109E7EC6B3C855C5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71C76982-CD29-4118-A1BB-4F12903451C1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +96,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -136,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,9 +182,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,6 +234,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,29 +427,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44837.69805665458</v>
+        <v>44937.698055555556</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100690A46C601EF784FB4DBF90453A8B30A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c2a6d426412259875eae8505f32291d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" xmlns:ns3="ffb314bc-7b2d-45ce-a517-7d370eafd82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ede3b69aa4e47f5cdfdf7e34ba2e0ff" ns2:_="" ns3:_="">
     <xsd:import namespace="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad"/>
@@ -642,19 +709,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876DB299-FB57-4AD2-93EC-21742BD6F0BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9DB5A3-9CC9-4565-8346-2575E5D7966B}"/>
-</file>
-
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876DB299-FB57-4AD2-93EC-21742BD6F0BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9DB5A3-9CC9-4565-8346-2575E5D7966B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad"/>
+    <ds:schemaRef ds:uri="ffb314bc-7b2d-45ce-a517-7d370eafd82d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>